--- a/Courses1.xlsx
+++ b/Courses1.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\DataSources\1251\Python Course Mapping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpattani\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD726C15-D83E-473A-91C1-416EA3DCAB38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B201A5EE-E96D-4044-B84A-327A9D220DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16275" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{9B3E7953-81FB-491A-ABAF-B685DC78122D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$47</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="116">
   <si>
     <t>Type</t>
   </si>
@@ -75,9 +78,6 @@
     <t>ACMA101</t>
   </si>
   <si>
-    <t>ACMA01 </t>
-  </si>
-  <si>
     <t>ACMA231</t>
   </si>
   <si>
@@ -96,9 +96,6 @@
     <t>ACMA340</t>
   </si>
   <si>
-    <t>ACMA60W</t>
-  </si>
-  <si>
     <t>ACMA395</t>
   </si>
   <si>
@@ -370,6 +367,24 @@
   </si>
   <si>
     <t>none</t>
+  </si>
+  <si>
+    <t>ACMA201 </t>
+  </si>
+  <si>
+    <t>CoRequisites</t>
+  </si>
+  <si>
+    <t>MATH150,MATH151,MATH154,MATH157</t>
+  </si>
+  <si>
+    <t>ACMA231,STAT330</t>
+  </si>
+  <si>
+    <t>ACMA360W</t>
+  </si>
+  <si>
+    <t>MATH152,MATH155,MATH158</t>
   </si>
 </sst>
 </file>
@@ -422,7 +437,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -445,11 +460,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -463,6 +489,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -778,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E3CEF34-9E13-44B7-B26A-5DAD84E1051B}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -792,7 +821,7 @@
     <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -808,8 +837,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -823,10 +855,13 @@
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -840,10 +875,13 @@
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -857,10 +895,13 @@
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -871,438 +912,516 @@
         <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E7" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="F8" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="F9" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="F16" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="F22" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="4" t="s">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D24" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="4" t="s">
+      <c r="E24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D25" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="E25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="E26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="E27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="E28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="E29" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="E30" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>11</v>
       </c>
@@ -1310,16 +1429,19 @@
         <v>10</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>11</v>
       </c>
@@ -1327,16 +1449,19 @@
         <v>10</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>11</v>
       </c>
@@ -1344,16 +1469,19 @@
         <v>10</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>11</v>
       </c>
@@ -1361,16 +1489,19 @@
         <v>10</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>11</v>
       </c>
@@ -1378,16 +1509,19 @@
         <v>10</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>11</v>
       </c>
@@ -1395,16 +1529,19 @@
         <v>10</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>11</v>
       </c>
@@ -1412,16 +1549,19 @@
         <v>10</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>11</v>
       </c>
@@ -1429,84 +1569,99 @@
         <v>10</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="2" t="s">
+      <c r="E40" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E41" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F42" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>11</v>
       </c>
@@ -1514,16 +1669,19 @@
         <v>10</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>11</v>
       </c>
@@ -1531,16 +1689,19 @@
         <v>10</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>11</v>
       </c>
@@ -1548,16 +1709,19 @@
         <v>10</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>11</v>
       </c>
@@ -1565,16 +1729,19 @@
         <v>10</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>11</v>
       </c>
@@ -1582,16 +1749,20 @@
         <v>10</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F47" xr:uid="{8E3CEF34-9E13-44B7-B26A-5DAD84E1051B}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Courses1.xlsx
+++ b/Courses1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpattani\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAEE95FB-5AF3-4981-93A2-1A7F4ED38CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F50251E-3D0D-4943-A0CC-D4BDA87D9430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16275" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{9B3E7953-81FB-491A-ABAF-B685DC78122D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9B3E7953-81FB-491A-ABAF-B685DC78122D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="338">
   <si>
     <t>Type</t>
   </si>
@@ -1042,6 +1042,15 @@
   </si>
   <si>
     <t>FANX99,MATH150,MATH151,MATH154,MATH157</t>
+  </si>
+  <si>
+    <t>Core</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Elective</t>
   </si>
 </sst>
 </file>
@@ -1446,10 +1455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78CCBC43-F5A5-4811-8E15-40122DF72A33}">
-  <dimension ref="A1:F143"/>
+  <dimension ref="A1:H143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="G144" sqref="G144"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H144" sqref="H144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1458,7 +1467,7 @@
     <col min="5" max="5" width="14.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1477,8 +1486,14 @@
       <c r="F1" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1498,7 +1513,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1518,7 +1533,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1538,7 +1553,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1558,7 +1573,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1578,7 +1593,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1598,7 +1613,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1617,8 +1632,11 @@
       <c r="F8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H8" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1637,8 +1655,11 @@
       <c r="F9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G9" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1657,8 +1678,11 @@
       <c r="F10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H10" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1677,8 +1701,11 @@
       <c r="F11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G11" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1698,7 +1725,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1718,7 +1745,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1738,7 +1765,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1757,8 +1784,11 @@
       <c r="F15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G15" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -1778,7 +1808,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -1798,7 +1828,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -1817,8 +1847,11 @@
       <c r="F18" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G18" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -1837,8 +1870,11 @@
       <c r="F19" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H19" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -1857,8 +1893,11 @@
       <c r="F20" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H20" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -1878,7 +1917,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -1897,8 +1936,11 @@
       <c r="F22" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H22" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -1917,8 +1959,11 @@
       <c r="F23" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -1937,8 +1982,11 @@
       <c r="F24" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G24" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -1957,8 +2005,11 @@
       <c r="F25" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G25" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -1977,8 +2028,11 @@
       <c r="F26" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H26" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -1997,8 +2051,11 @@
       <c r="F27" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H27" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -2017,8 +2074,11 @@
       <c r="F28" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H28" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -2038,7 +2098,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -2057,8 +2117,11 @@
       <c r="F30" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G30" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -2078,7 +2141,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -2098,7 +2161,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -2117,8 +2180,11 @@
       <c r="F33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H33" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -2137,8 +2203,11 @@
       <c r="F34" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H34" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -2158,7 +2227,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -2177,8 +2246,11 @@
       <c r="F36" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H36" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -2197,8 +2269,11 @@
       <c r="F37" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H37" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -2217,8 +2292,11 @@
       <c r="F38" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H38" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -2238,7 +2316,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -2257,8 +2335,11 @@
       <c r="F40" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H40" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -2278,7 +2359,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -2298,7 +2379,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -2318,7 +2399,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -2338,7 +2419,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -2357,8 +2438,11 @@
       <c r="F45" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H45" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -2378,7 +2462,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -2398,7 +2482,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -2418,7 +2502,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -2438,7 +2522,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>11</v>
       </c>
@@ -2458,7 +2542,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -2477,8 +2561,11 @@
       <c r="F51" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H51" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>11</v>
       </c>
@@ -2498,7 +2585,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -2517,8 +2604,11 @@
       <c r="F53" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H53" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -2537,8 +2627,11 @@
       <c r="F54" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H54" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -2557,8 +2650,11 @@
       <c r="F55" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H55" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -2577,8 +2673,11 @@
       <c r="F56" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H56" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -2598,7 +2697,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>11</v>
       </c>
@@ -2617,8 +2716,11 @@
       <c r="F58" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H58" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -2637,8 +2739,11 @@
       <c r="F59" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H59" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>11</v>
       </c>
@@ -2658,7 +2763,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>11</v>
       </c>
@@ -2677,8 +2782,11 @@
       <c r="F61" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H61" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -2697,8 +2805,11 @@
       <c r="F62" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H62" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -2717,8 +2828,11 @@
       <c r="F63" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H63" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>11</v>
       </c>
@@ -2737,8 +2851,11 @@
       <c r="F64" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H64" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -2757,8 +2874,11 @@
       <c r="F65" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H65" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>11</v>
       </c>
@@ -2777,8 +2897,11 @@
       <c r="F66" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H66" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -2798,7 +2921,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>11</v>
       </c>
@@ -2817,8 +2940,11 @@
       <c r="F68" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H68" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -2837,8 +2963,11 @@
       <c r="F69" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H69" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>11</v>
       </c>
@@ -2858,7 +2987,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -2877,8 +3006,11 @@
       <c r="F71" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H71" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>11</v>
       </c>
@@ -2898,7 +3030,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>11</v>
       </c>
@@ -2917,8 +3049,11 @@
       <c r="F73" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H73" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>11</v>
       </c>
@@ -2938,7 +3073,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -2958,7 +3093,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>11</v>
       </c>
@@ -2978,7 +3113,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>11</v>
       </c>
@@ -2998,7 +3133,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>11</v>
       </c>
@@ -3018,7 +3153,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>11</v>
       </c>
@@ -3038,7 +3173,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>11</v>
       </c>
